--- a/Code/BrokerServer/src/doc/FIX Contract.xlsx
+++ b/Code/BrokerServer/src/doc/FIX Contract.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="54">
   <si>
     <t>Tag</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,12 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -372,12 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,7 +686,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17:T26"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -700,63 +700,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
     </row>
     <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="H2" s="12" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="H2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="13" t="s">
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="O2" s="12" t="s">
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="O2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13" t="s">
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
     </row>
     <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1252,13 +1252,13 @@
         <v>26</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="P12" s="3">
         <v>101</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>30</v>
@@ -1295,6 +1295,15 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
+      <c r="O13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" s="3">
+        <v>102</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
     </row>
@@ -1368,22 +1377,22 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
-      <c r="H17" s="11" t="s">
+      <c r="H17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="O17" s="14" t="s">
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="O17" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
     </row>
     <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1396,22 +1405,22 @@
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="13" t="s">
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
     </row>
     <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
@@ -1450,12 +1459,12 @@
       <c r="M19" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
     </row>
     <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
@@ -1486,12 +1495,12 @@
         <v>8</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
     </row>
     <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -1522,12 +1531,12 @@
         <v>9</v>
       </c>
       <c r="M21" s="7"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
     </row>
     <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -1566,12 +1575,12 @@
       <c r="M22" s="3">
         <v>5</v>
       </c>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -1610,12 +1619,12 @@
       <c r="M23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
     </row>
     <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -1654,12 +1663,12 @@
       <c r="M24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
-      <c r="R24" s="15"/>
-      <c r="S24" s="15"/>
-      <c r="T24" s="15"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
     </row>
     <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -1698,12 +1707,12 @@
       <c r="M25" s="3">
         <v>2</v>
       </c>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
     </row>
     <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
@@ -1735,12 +1744,12 @@
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
     </row>
     <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -1958,6 +1967,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
     <mergeCell ref="O17:T26"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="O2:Q2"/>
@@ -1965,12 +1980,6 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Code/BrokerServer/src/doc/FIX Contract.xlsx
+++ b/Code/BrokerServer/src/doc/FIX Contract.xlsx
@@ -124,10 +124,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Revocation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,10 +145,6 @@
   </si>
   <si>
     <t>LastPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -233,6 +225,14 @@
 2、TraderId 目前暂定为 10086，BrokerId 暂定为 10010。
 3、消息类别决定后端对此消息不同的处理方式。
 4、暂定为大于100的Tag为自定义区域。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastDate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -355,6 +355,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -369,15 +375,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -686,7 +683,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -700,63 +697,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="O1" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="O1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="H2" s="14" t="s">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="O2" s="14" t="s">
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="O2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
     </row>
     <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1225,7 +1222,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="3">
         <v>101</v>
@@ -1243,7 +1240,7 @@
         <v>20</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L12" s="3">
         <v>101</v>
@@ -1261,7 +1258,7 @@
         <v>20</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S12" s="3">
         <v>101</v>
@@ -1296,13 +1293,13 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="O13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P13" s="3">
         <v>102</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
@@ -1369,102 +1366,102 @@
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="H17" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="O17" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
+      <c r="A17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="H17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="O17" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
     </row>
     <row r="18" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="H18" s="14" t="s">
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="H18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="15" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
     </row>
     <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
     </row>
     <row r="20" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
@@ -1495,12 +1492,12 @@
         <v>8</v>
       </c>
       <c r="M20" s="7"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
     </row>
     <row r="21" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
@@ -1531,12 +1528,12 @@
         <v>9</v>
       </c>
       <c r="M21" s="7"/>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
     </row>
     <row r="22" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
@@ -1575,12 +1572,12 @@
       <c r="M22" s="3">
         <v>5</v>
       </c>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
     </row>
     <row r="23" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
@@ -1619,12 +1616,12 @@
       <c r="M23" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
     </row>
     <row r="24" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -1663,12 +1660,12 @@
       <c r="M24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
     </row>
     <row r="25" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
@@ -1707,12 +1704,12 @@
       <c r="M25" s="3">
         <v>2</v>
       </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
     </row>
     <row r="26" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
@@ -1744,12 +1741,12 @@
       </c>
       <c r="M26" s="7"/>
       <c r="N26" s="1"/>
-      <c r="O26" s="12"/>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="12"/>
-      <c r="T26" s="12"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
     </row>
     <row r="27" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -1793,43 +1790,43 @@
         <v>20</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E28" s="3">
         <v>110</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I28" s="3">
         <v>101</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L28" s="3">
         <v>110</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="D29" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="3">
         <v>101</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>16</v>
@@ -1847,17 +1844,17 @@
     <row r="30" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="D30" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E30" s="3">
         <v>102</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H30" s="2"/>
       <c r="K30" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L30" s="3">
         <v>102</v>
@@ -1872,13 +1869,13 @@
     <row r="31" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="D31" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E31" s="3">
         <v>103</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H31" s="2"/>
       <c r="K31" s="3" t="s">
@@ -1897,13 +1894,13 @@
     <row r="32" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="D32" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E32" s="3">
         <v>104</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H32" s="2"/>
       <c r="K32" s="3" t="s">
@@ -1922,23 +1919,23 @@
     <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="D33" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E33" s="3">
         <v>105</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33" s="2"/>
       <c r="K33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L33" s="3">
         <v>105</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -1947,32 +1944,26 @@
     <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="D34" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E34" s="3">
         <v>106</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L34" s="3">
         <v>106</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="H17:M17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
+  <mergeCells count="14">
     <mergeCell ref="O17:T26"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="O2:Q2"/>
@@ -1980,6 +1971,13 @@
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:M2"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="H17:M17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
